--- a/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/avg_classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.03061371060791053</t>
+          <t>0.05571975364036371</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.11968227958583331</t>
+          <t>0.09120074802709205</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.813876896756453</t>
+          <t>0.8758614096145274</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.0388397283334011</t>
+          <t>0.04458535278993722</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.1599401858177287</t>
+          <t>0.054847341360820034</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6678668372168319</t>
+          <t>0.9547153578123763</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.0404951107214461</t>
+          <t>0.048206912811016835</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.10394125740706696</t>
+          <t>0.07133649959665025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8579655638635502</t>
+          <t>0.9242844601232749</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.03912308692746013</t>
+          <t>0.06141176241731515</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.1332596548448252</t>
+          <t>0.055600539364098894</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.7683779284167355</t>
+          <t>0.9528636820955679</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/avg_classes.xlsx
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.05571975364036371</t>
+          <t>0.04413634155395283</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.09120074802709205</t>
+          <t>0.055604013251663864</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8758614096145274</t>
+          <t>0.9536741756300687</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.04458535278993722</t>
+          <t>0.048206912811016835</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.054847341360820034</t>
+          <t>0.07133649959665025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9547153578123763</t>
+          <t>0.9242844601232749</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.048206912811016835</t>
+          <t>0.059802758583293855</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.07133649959665025</t>
+          <t>0.05290803864590205</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9242844601232749</t>
+          <t>0.9572173592695379</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.06141176241731515</t>
+          <t>0.057011537775640324</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.055600539364098894</t>
+          <t>0.08971854213090566</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9528636820955679</t>
+          <t>0.8795934208848286</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/avg_classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.04413634155395283</t>
+          <t>0.03699721068920602</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.055604013251663864</t>
+          <t>0.051635583232807016</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9536741756300687</t>
+          <t>0.929098899742245</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>75</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.048206912811016835</t>
+          <t>0.03985411837642509</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.07133649959665025</t>
+          <t>1.644185778642031</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9242844601232749</t>
+          <t>-64.79306905512797</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.059802758583293855</t>
+          <t>0.04218928883491045</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.05290803864590205</t>
+          <t>0.05887784616046371</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9572173592695379</t>
+          <t>0.8619215279219828</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>112</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.057011537775640324</t>
+          <t>0.039686581185019804</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.08971854213090566</t>
+          <t>0.945563101564206</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8795934208848286</t>
+          <t>-20.423435193558703</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/avg_classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.05571975364036371</t>
+          <t>0.05600064292069589</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.09120074802709205</t>
+          <t>0.2470964766586733</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8758614096145274</t>
+          <t>-1.2175028140465936</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.04458535278993722</t>
+          <t>0.04194312424500045</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.054847341360820034</t>
+          <t>11.85561799580231</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9547153578123763</t>
+          <t>-2814.650173433777</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.048206912811016835</t>
+          <t>0.04348313736438153</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.07133649959665025</t>
+          <t>0.3287680379756909</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9242844601232749</t>
+          <t>-2.5789074143993567</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.06141176241731515</t>
+          <t>0.0407903360705104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.055600539364098894</t>
+          <t>7.315850086344268</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9528636820955679</t>
+          <t>-1084.0454213844794</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/MLR/avg_classes.xlsx
@@ -487,66 +487,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.04194312424500045</t>
+          <t>0.0407903360705104</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11.85561799580231</t>
+          <t>7.315850086344268</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2814.650173433777</t>
+          <t>-1084.0454213844794</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.04348313736438153</t>
+          <t>0.04194312424500045</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.3287680379756909</t>
+          <t>11.85561799580231</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.5789074143993567</t>
+          <t>-2814.650173433777</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.0407903360705104</t>
+          <t>0.04348313736438153</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7.315850086344268</t>
+          <t>0.3287680379756909</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1084.0454213844794</t>
+          <t>-2.5789074143993567</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>34</t>
         </is>
       </c>
     </row>
